--- a/AirlineProjectSchema.xlsx
+++ b/AirlineProjectSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a9d8342fac3b69e/Desktop/Project Gladiator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{22186F3F-371C-4782-A8FE-207D6B719325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F48EC60-E1A3-490A-A363-021B23167DD8}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{22186F3F-371C-4782-A8FE-207D6B719325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84984F6A-246F-4F04-A666-BC0C24286C16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5CBBC03-9683-4169-A112-7ED911D82B81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>FlightDetails</t>
   </si>
@@ -204,42 +204,9 @@
     <t>Return date</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Airline123#</t>
-  </si>
-  <si>
     <t>UserDetails</t>
   </si>
   <si>
-    <t>medasrisaikiran</t>
-  </si>
-  <si>
-    <t>samantachauhan</t>
-  </si>
-  <si>
-    <t>rachitlalla</t>
-  </si>
-  <si>
-    <t>sushmasudam</t>
-  </si>
-  <si>
-    <t>tonystark</t>
-  </si>
-  <si>
-    <t>harvardstark</t>
-  </si>
-  <si>
-    <t>UserCredentials</t>
-  </si>
-  <si>
-    <t>AdminCredentials</t>
-  </si>
-  <si>
     <t>Saikiran987@</t>
   </si>
   <si>
@@ -265,42 +232,6 @@
   </si>
   <si>
     <t>departuredate</t>
-  </si>
-  <si>
-    <t>returndate</t>
-  </si>
-  <si>
-    <t>FlightAvailability</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>flightid</t>
-  </si>
-  <si>
-    <t>update table set Monday=n group by flightid;</t>
-  </si>
-  <si>
-    <t>dd-mon-yyyy</t>
   </si>
 </sst>
 </file>
@@ -311,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +279,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -410,9 +349,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -425,6 +361,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5E303D-67AF-4686-B217-628A4571A994}">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,12 +751,8 @@
       <c r="M2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1870,11 +1805,11 @@
       </c>
     </row>
     <row r="35" spans="3:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="19"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1899,19 +1834,20 @@
       <c r="I37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="J37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1922,15 +1858,13 @@
       <c r="H38">
         <v>7330844693</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="17">
         <v>36231</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -1951,15 +1885,13 @@
       <c r="H39">
         <v>8421014874</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <v>36231</v>
       </c>
-      <c r="K39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="J39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -1980,15 +1912,13 @@
       <c r="H40">
         <v>7030111718</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="17">
         <v>36231</v>
       </c>
-      <c r="K40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="J40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -2009,15 +1939,13 @@
       <c r="H41">
         <v>9100652434</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="17">
         <v>36231</v>
       </c>
-      <c r="K41" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="J41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -2038,15 +1966,13 @@
       <c r="H42">
         <v>1331331331</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="17">
         <v>36231</v>
       </c>
-      <c r="K42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="J42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43">
@@ -2067,344 +1993,249 @@
       <c r="H43">
         <v>2424242424</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="17">
         <v>36231</v>
       </c>
-      <c r="K43" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I44" s="4"/>
-      <c r="K44" t="s">
-        <v>68</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="K44" s="3"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I45" s="4"/>
+      <c r="K45" s="3"/>
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="3"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="52" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="7" t="s">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>10001</v>
+      </c>
+      <c r="E50">
+        <v>101</v>
+      </c>
+      <c r="F50">
+        <v>103</v>
+      </c>
+      <c r="G50" s="9">
+        <v>44210.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="9">
+        <v>44210.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>110</v>
+      </c>
+      <c r="D51">
+        <v>10001</v>
+      </c>
+      <c r="E51">
+        <v>101</v>
+      </c>
+      <c r="F51">
+        <v>104</v>
+      </c>
+      <c r="G51" s="9">
+        <v>44176.395833333336</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="9">
+        <v>44176.395833333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>111</v>
+      </c>
+      <c r="D52">
+        <v>10010</v>
+      </c>
+      <c r="E52">
+        <v>103</v>
+      </c>
+      <c r="F52">
+        <v>105</v>
+      </c>
+      <c r="G52" s="9">
+        <v>44209.5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="9">
+        <v>44209.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>112</v>
+      </c>
+      <c r="D53">
+        <v>10005</v>
+      </c>
+      <c r="E53">
+        <v>104</v>
+      </c>
+      <c r="F53">
+        <v>106</v>
+      </c>
+      <c r="G53" s="9">
+        <v>44210.875</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="9">
+        <v>44210.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>113</v>
+      </c>
+      <c r="D54">
+        <v>10005</v>
+      </c>
+      <c r="E54">
+        <v>104</v>
+      </c>
+      <c r="F54">
+        <v>107</v>
+      </c>
+      <c r="G54" s="9">
+        <v>44210.708333333336</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="9">
+        <v>44210.708333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="11"/>
+      <c r="C63">
+        <v>103</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>109</v>
-      </c>
-      <c r="B54">
-        <v>10001</v>
-      </c>
-      <c r="C54">
-        <v>101</v>
-      </c>
-      <c r="D54">
-        <v>103</v>
-      </c>
-      <c r="E54" s="9">
+      <c r="E63">
+        <v>12000</v>
+      </c>
+      <c r="F63" s="9">
         <v>44210.5</v>
       </c>
-      <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54">
-        <v>103</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>12000</v>
-      </c>
-      <c r="M54" s="9">
+      <c r="G63" s="9">
         <v>44210.5</v>
       </c>
-      <c r="N54" s="9">
-        <v>44210.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>110</v>
-      </c>
-      <c r="B55">
-        <v>10001</v>
-      </c>
-      <c r="C55">
-        <v>101</v>
-      </c>
-      <c r="D55">
-        <v>104</v>
-      </c>
-      <c r="E55" s="9">
-        <v>44176.395833333336</v>
-      </c>
-      <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55">
-        <v>104</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>12000</v>
-      </c>
-      <c r="M55" s="9">
-        <v>44176.395833333336</v>
-      </c>
-      <c r="N55" s="9">
-        <v>44176.395833333336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>111</v>
-      </c>
-      <c r="B56">
-        <v>10010</v>
-      </c>
-      <c r="C56">
-        <v>103</v>
-      </c>
-      <c r="D56">
-        <v>105</v>
-      </c>
-      <c r="E56" s="9">
-        <v>44209.5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56">
-        <v>105</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>18000</v>
-      </c>
-      <c r="M56" s="9">
-        <v>44209.5</v>
-      </c>
-      <c r="N56" s="9">
-        <v>44209.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>112</v>
-      </c>
-      <c r="B57">
-        <v>10005</v>
-      </c>
-      <c r="C57">
-        <v>104</v>
-      </c>
-      <c r="D57">
-        <v>106</v>
-      </c>
-      <c r="E57" s="9">
-        <v>44210.875</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57">
-        <v>106</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>20000</v>
-      </c>
-      <c r="M57" s="9">
-        <v>44210.875</v>
-      </c>
-      <c r="N57" s="9">
-        <v>44210.875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>113</v>
-      </c>
-      <c r="B58">
-        <v>10005</v>
-      </c>
-      <c r="C58">
-        <v>104</v>
-      </c>
-      <c r="D58">
-        <v>107</v>
-      </c>
-      <c r="E58" s="9">
-        <v>44210.708333333336</v>
-      </c>
-      <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58">
-        <v>107</v>
-      </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>20000</v>
-      </c>
-      <c r="M58" s="9">
-        <v>44210.708333333336</v>
-      </c>
-      <c r="N58" s="9">
-        <v>44210.708333333336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I61" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
       <c r="H63" s="12"/>
-      <c r="I63">
-        <v>10001</v>
-      </c>
-      <c r="J63" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" t="s">
-        <v>56</v>
-      </c>
-      <c r="L63" t="s">
-        <v>55</v>
-      </c>
-      <c r="M63" t="s">
-        <v>56</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="O63" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P63" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -2417,180 +2248,159 @@
       <c r="Z63" s="11"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64">
+        <v>104</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>12000</v>
+      </c>
+      <c r="F64" s="9">
+        <v>44176.395833333336</v>
+      </c>
+      <c r="G64" s="9">
+        <v>44176.395833333336</v>
+      </c>
       <c r="H64" s="3"/>
-      <c r="I64">
-        <v>10002</v>
-      </c>
-      <c r="J64" t="s">
-        <v>56</v>
-      </c>
-      <c r="K64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" t="s">
-        <v>55</v>
-      </c>
-      <c r="M64" t="s">
-        <v>55</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="16"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="15"/>
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="10"/>
+      <c r="C65">
+        <v>105</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>18000</v>
+      </c>
+      <c r="F65" s="9">
+        <v>44209.5</v>
+      </c>
+      <c r="G65" s="9">
+        <v>44209.5</v>
+      </c>
       <c r="H65" s="3"/>
-      <c r="I65">
-        <v>10003</v>
-      </c>
-      <c r="J65" t="s">
-        <v>55</v>
-      </c>
-      <c r="K65" t="s">
-        <v>55</v>
-      </c>
-      <c r="L65" t="s">
-        <v>55</v>
-      </c>
-      <c r="M65" t="s">
-        <v>56</v>
-      </c>
-      <c r="N65" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="C66">
+        <v>106</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>20000</v>
+      </c>
+      <c r="F66" s="9">
+        <v>44210.875</v>
+      </c>
+      <c r="G66" s="9">
+        <v>44210.875</v>
+      </c>
       <c r="H66" s="3"/>
-      <c r="I66">
-        <v>10004</v>
-      </c>
-      <c r="J66" t="s">
-        <v>55</v>
-      </c>
-      <c r="K66" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" t="s">
-        <v>56</v>
-      </c>
-      <c r="M66" t="s">
-        <v>56</v>
-      </c>
-      <c r="N66" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P66" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="C67">
+        <v>107</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>20000</v>
+      </c>
+      <c r="F67" s="9">
+        <v>44210.708333333336</v>
+      </c>
+      <c r="G67" s="9">
+        <v>44210.708333333336</v>
+      </c>
       <c r="H67" s="3"/>
-      <c r="I67">
-        <v>10005</v>
-      </c>
-      <c r="J67" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" t="s">
-        <v>56</v>
-      </c>
-      <c r="L67" t="s">
-        <v>56</v>
-      </c>
-      <c r="M67" t="s">
-        <v>56</v>
-      </c>
-      <c r="N67" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P67" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2598,42 +2408,27 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="3"/>
-      <c r="I68">
-        <v>10006</v>
-      </c>
-      <c r="J68" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" t="s">
-        <v>56</v>
-      </c>
-      <c r="L68" t="s">
-        <v>56</v>
-      </c>
-      <c r="M68" t="s">
-        <v>55</v>
-      </c>
-      <c r="N68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P68" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2641,42 +2436,27 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="3"/>
-      <c r="I69">
-        <v>10007</v>
-      </c>
-      <c r="J69" t="s">
-        <v>56</v>
-      </c>
-      <c r="K69" t="s">
-        <v>55</v>
-      </c>
-      <c r="L69" t="s">
-        <v>55</v>
-      </c>
-      <c r="M69" t="s">
-        <v>55</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2684,42 +2464,27 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="3"/>
-      <c r="I70">
-        <v>10008</v>
-      </c>
-      <c r="J70" t="s">
-        <v>55</v>
-      </c>
-      <c r="K70" t="s">
-        <v>55</v>
-      </c>
-      <c r="L70" t="s">
-        <v>55</v>
-      </c>
-      <c r="M70" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P70" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2727,42 +2492,27 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="3"/>
-      <c r="I71">
-        <v>10009</v>
-      </c>
-      <c r="J71" t="s">
-        <v>56</v>
-      </c>
-      <c r="K71" t="s">
-        <v>55</v>
-      </c>
-      <c r="L71" t="s">
-        <v>55</v>
-      </c>
-      <c r="M71" t="s">
-        <v>56</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P71" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2770,42 +2520,27 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="3"/>
-      <c r="I72">
-        <v>10010</v>
-      </c>
-      <c r="J72" t="s">
-        <v>55</v>
-      </c>
-      <c r="K72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O72" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P72" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2813,42 +2548,27 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="3"/>
-      <c r="I73">
-        <v>10011</v>
-      </c>
-      <c r="J73" t="s">
-        <v>55</v>
-      </c>
-      <c r="K73" t="s">
-        <v>56</v>
-      </c>
-      <c r="L73" t="s">
-        <v>56</v>
-      </c>
-      <c r="M73" t="s">
-        <v>55</v>
-      </c>
-      <c r="N73" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P73" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
       <c r="X73" s="10"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2856,42 +2576,27 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="3"/>
-      <c r="I74">
-        <v>10012</v>
-      </c>
-      <c r="J74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K74" t="s">
-        <v>55</v>
-      </c>
-      <c r="L74" t="s">
-        <v>55</v>
-      </c>
-      <c r="M74" t="s">
-        <v>56</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P74" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2899,42 +2604,27 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="3"/>
-      <c r="I75">
-        <v>10013</v>
-      </c>
-      <c r="J75" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" t="s">
-        <v>55</v>
-      </c>
-      <c r="L75" t="s">
-        <v>55</v>
-      </c>
-      <c r="M75" t="s">
-        <v>56</v>
-      </c>
-      <c r="N75" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P75" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2942,42 +2632,27 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="3"/>
-      <c r="I76">
-        <v>10014</v>
-      </c>
-      <c r="J76" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" t="s">
-        <v>56</v>
-      </c>
-      <c r="L76" t="s">
-        <v>55</v>
-      </c>
-      <c r="M76" t="s">
-        <v>55</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P76" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -2985,42 +2660,27 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="3"/>
-      <c r="I77">
-        <v>10015</v>
-      </c>
-      <c r="J77" t="s">
-        <v>56</v>
-      </c>
-      <c r="K77" t="s">
-        <v>55</v>
-      </c>
-      <c r="L77" t="s">
-        <v>56</v>
-      </c>
-      <c r="M77" t="s">
-        <v>55</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P77" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
       <c r="X77" s="10"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -3028,42 +2688,27 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="3"/>
-      <c r="I78">
-        <v>10016</v>
-      </c>
-      <c r="J78" t="s">
-        <v>55</v>
-      </c>
-      <c r="K78" t="s">
-        <v>55</v>
-      </c>
-      <c r="L78" t="s">
-        <v>55</v>
-      </c>
-      <c r="M78" t="s">
-        <v>55</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O78" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P78" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
       <c r="Z78" s="10"/>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -3071,378 +2716,510 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="3"/>
-      <c r="I79">
-        <v>10017</v>
-      </c>
-      <c r="J79" t="s">
-        <v>56</v>
-      </c>
-      <c r="K79" t="s">
-        <v>55</v>
-      </c>
-      <c r="L79" t="s">
-        <v>56</v>
-      </c>
-      <c r="M79" t="s">
-        <v>55</v>
-      </c>
-      <c r="N79" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O79" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P79" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
-      <c r="U79" s="15"/>
+      <c r="U79" s="14"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="10"/>
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I80">
-        <v>10018</v>
-      </c>
-      <c r="J80" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" t="s">
-        <v>55</v>
-      </c>
-      <c r="L80" t="s">
-        <v>56</v>
-      </c>
-      <c r="M80" t="s">
-        <v>56</v>
-      </c>
-      <c r="N80" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P80" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I81">
-        <v>10019</v>
-      </c>
-      <c r="J81" t="s">
-        <v>56</v>
-      </c>
-      <c r="K81" t="s">
-        <v>56</v>
-      </c>
-      <c r="L81" t="s">
-        <v>56</v>
-      </c>
-      <c r="M81" t="s">
-        <v>56</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O81" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P81" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I82">
-        <v>10020</v>
-      </c>
-      <c r="J82" t="s">
-        <v>55</v>
-      </c>
-      <c r="K82" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" t="s">
-        <v>55</v>
-      </c>
-      <c r="M82" t="s">
-        <v>55</v>
-      </c>
-      <c r="N82" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O82" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P82" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I83">
-        <v>10021</v>
-      </c>
-      <c r="J83" t="s">
-        <v>55</v>
-      </c>
-      <c r="K83" t="s">
-        <v>55</v>
-      </c>
-      <c r="L83" t="s">
-        <v>56</v>
-      </c>
-      <c r="M83" t="s">
-        <v>55</v>
-      </c>
-      <c r="N83" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O83" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P83" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I84">
-        <v>10022</v>
-      </c>
-      <c r="J84" t="s">
-        <v>56</v>
-      </c>
-      <c r="K84" t="s">
-        <v>55</v>
-      </c>
-      <c r="L84" t="s">
-        <v>55</v>
-      </c>
-      <c r="M84" t="s">
-        <v>56</v>
-      </c>
-      <c r="N84" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O84" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P84" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I85">
-        <v>10023</v>
-      </c>
-      <c r="J85" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" t="s">
-        <v>55</v>
-      </c>
-      <c r="M85" t="s">
-        <v>55</v>
-      </c>
-      <c r="N85" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O85" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P85" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I86">
-        <v>10024</v>
-      </c>
-      <c r="J86" t="s">
-        <v>55</v>
-      </c>
-      <c r="K86" t="s">
-        <v>56</v>
-      </c>
-      <c r="L86" t="s">
-        <v>56</v>
-      </c>
-      <c r="M86" t="s">
-        <v>56</v>
-      </c>
-      <c r="N86" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O86" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P86" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I87">
-        <v>10025</v>
-      </c>
-      <c r="J87" t="s">
-        <v>55</v>
-      </c>
-      <c r="K87" t="s">
-        <v>56</v>
-      </c>
-      <c r="L87" t="s">
-        <v>55</v>
-      </c>
-      <c r="M87" t="s">
-        <v>55</v>
-      </c>
-      <c r="N87" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O87" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P87" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I88">
-        <v>10026</v>
-      </c>
-      <c r="J88" t="s">
-        <v>55</v>
-      </c>
-      <c r="K88" t="s">
-        <v>56</v>
-      </c>
-      <c r="L88" t="s">
-        <v>56</v>
-      </c>
-      <c r="M88" t="s">
-        <v>56</v>
-      </c>
-      <c r="N88" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O88" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P88" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I89">
-        <v>10027</v>
-      </c>
-      <c r="J89" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" t="s">
-        <v>55</v>
-      </c>
-      <c r="L89" t="s">
-        <v>56</v>
-      </c>
-      <c r="M89" t="s">
-        <v>56</v>
-      </c>
-      <c r="N89" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O89" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P89" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I90">
-        <v>10028</v>
-      </c>
-      <c r="J90" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" t="s">
-        <v>56</v>
-      </c>
-      <c r="L90" t="s">
-        <v>55</v>
-      </c>
-      <c r="M90" t="s">
-        <v>56</v>
-      </c>
-      <c r="N90" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O90" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P90" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I91">
-        <v>10029</v>
-      </c>
-      <c r="J91" t="s">
-        <v>55</v>
-      </c>
-      <c r="K91" t="s">
-        <v>55</v>
-      </c>
-      <c r="L91" t="s">
-        <v>55</v>
-      </c>
-      <c r="M91" t="s">
-        <v>55</v>
-      </c>
-      <c r="N91" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O91" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P91" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I92">
-        <v>10030</v>
-      </c>
-      <c r="J92" t="s">
-        <v>55</v>
-      </c>
-      <c r="K92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L92" t="s">
-        <v>56</v>
-      </c>
-      <c r="M92" t="s">
-        <v>55</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O92" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P92" s="10" t="s">
-        <v>55</v>
-      </c>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="10"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="10"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="10"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="10"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="10"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="10"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="10"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="10"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="10"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
